--- a/medicine/Psychotrope/25C-NBOMe/25C-NBOMe.xlsx
+++ b/medicine/Psychotrope/25C-NBOMe/25C-NBOMe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 25C-NBOMe (ou 2C-C-NBOMe) est une drogue psychédélique dérivée du 2C-C.
-Il a été découvert en 2003 à l'université libre de Berlin par le chimiste Ralf Heim[5], puis étudié par David Nichols à l'université de Purdue[6].
+Il a été découvert en 2003 à l'université libre de Berlin par le chimiste Ralf Heim, puis étudié par David Nichols à l'université de Purdue.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 25C-NBOMe est un dérivé de la phényléthylamine 2C-C, découverte par Alexander Shulgin et décrite dans son ouvrage PiHKAL[7].
-Il est généralement utilisé sous forme chlorhydrate[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25C-NBOMe est un dérivé de la phényléthylamine 2C-C, découverte par Alexander Shulgin et décrite dans son ouvrage PiHKAL.
+Il est généralement utilisé sous forme chlorhydrate,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 25C-NBOMe est un puissant agoniste partiel du récepteur 5-HT2a (en)[4],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25C-NBOMe est un puissant agoniste partiel du récepteur 5-HT2a (en),.
 </t>
         </is>
       </c>
@@ -576,21 +592,92 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Étant un nouveau produit de synthèse, le 25C-NBOMe est peu documenté et on ne connaît que peu sa toxicité et son action pharmacologique.
-Comme d'autres composés de la famille 25x-NBOMe, il est responsable de plusieurs décès par overdose aux États-Unis[9]. Ayant un effet à une dose minime (moins d'un milligramme)[10], il est souvent vendu comme du LSD ou de la "mescaline synthétique", ce qui provoque de nombreux effets indésirables chez les consommateurs[11].
-Effets recherchés
-hallucinations intenses ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étant un nouveau produit de synthèse, le 25C-NBOMe est peu documenté et on ne connaît que peu sa toxicité et son action pharmacologique.
+Comme d'autres composés de la famille 25x-NBOMe, il est responsable de plusieurs décès par overdose aux États-Unis. Ayant un effet à une dose minime (moins d'un milligramme), il est souvent vendu comme du LSD ou de la "mescaline synthétique", ce qui provoque de nombreux effets indésirables chez les consommateurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25C-NBOMe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/25C-NBOMe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hallucinations intenses ;
 état modifié de conscience ;
 sensations d'euphorie, d'énergie, de bien-être ;
 stimulation physique et mentale ;
 augmentation de la créativité ;
 appréciation accrue de la musique ;
 expériences spirituelles ;
-sentiments d'amour et d'empathie.
-Effets indésirables
-dilatation des pupilles ;
+sentiments d'amour et d'empathie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25C-NBOMe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/25C-NBOMe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>dilatation des pupilles ;
 modification de la perception du temps ;
 augmentation du rythme cardiaque ;
 bâillements ;
